--- a/Code/Results/Cases/Case_1_135/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_135/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.929447742856695</v>
+        <v>1.250258139219767</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.00779436276904022</v>
+        <v>0.005747792639855476</v>
       </c>
       <c r="E2">
-        <v>0.8419993718568932</v>
+        <v>0.5268423054473814</v>
       </c>
       <c r="F2">
-        <v>1.93743810400386</v>
+        <v>0.9530285815336583</v>
       </c>
       <c r="G2">
-        <v>2.086396700835195</v>
+        <v>0.8715018868364552</v>
       </c>
       <c r="H2">
-        <v>1.036801027433768</v>
+        <v>0.7425514595447567</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.088347626741324</v>
+        <v>0.374049089480053</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.162914303479269</v>
+        <v>1.468496641925682</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.688075588604534</v>
+        <v>1.188230561460585</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.006749324607039142</v>
+        <v>0.005663307123061401</v>
       </c>
       <c r="E3">
-        <v>0.761845239971187</v>
+        <v>0.5029502722519297</v>
       </c>
       <c r="F3">
-        <v>1.676089990021154</v>
+        <v>0.8946491321224102</v>
       </c>
       <c r="G3">
-        <v>1.797051758195693</v>
+        <v>0.8044451341010017</v>
       </c>
       <c r="H3">
-        <v>0.9081105656280783</v>
+        <v>0.7175415177758282</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.941387781513896</v>
+        <v>0.3325800823766087</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.154805129464179</v>
+        <v>1.4692426749845</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.54157688587128</v>
+        <v>1.150682959045383</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.006172471189938022</v>
+        <v>0.005621275071270304</v>
       </c>
       <c r="E4">
-        <v>0.7129238871363484</v>
+        <v>0.4882034792257812</v>
       </c>
       <c r="F4">
-        <v>1.519986139841635</v>
+        <v>0.8595645133386114</v>
       </c>
       <c r="G4">
-        <v>1.624163933201743</v>
+        <v>0.763963207706098</v>
       </c>
       <c r="H4">
-        <v>0.8316143773340343</v>
+        <v>0.7027713160572375</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.8519716782915623</v>
+        <v>0.3071694250850783</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.15122768026913</v>
+        <v>1.47037184792687</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.482252967673162</v>
+        <v>1.1355174883291</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.005951673596975127</v>
+        <v>0.005606577100008892</v>
       </c>
       <c r="E5">
-        <v>0.6930430618151036</v>
+        <v>0.4821748288301819</v>
       </c>
       <c r="F5">
-        <v>1.45733085280304</v>
+        <v>0.8454561265490099</v>
       </c>
       <c r="G5">
-        <v>1.554753086533111</v>
+        <v>0.747637448999825</v>
       </c>
       <c r="H5">
-        <v>0.8010011313168945</v>
+        <v>0.6968985148211573</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.8157036701734341</v>
+        <v>0.2968272395221163</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.150112110390822</v>
+        <v>1.471001338671897</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.472423480374971</v>
+        <v>1.133007465481853</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005915817307656113</v>
+        <v>0.00560428200867058</v>
       </c>
       <c r="E6">
-        <v>0.6897446813804891</v>
+        <v>0.4811726200858359</v>
       </c>
       <c r="F6">
-        <v>1.446981029988791</v>
+        <v>0.8431247784158131</v>
       </c>
       <c r="G6">
-        <v>1.543286086785059</v>
+        <v>0.7449368115371442</v>
       </c>
       <c r="H6">
-        <v>0.795949578406038</v>
+        <v>0.6959321350483663</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.8096906605316576</v>
+        <v>0.2951107022479107</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.149947258655985</v>
+        <v>1.471116110577725</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.540775369630467</v>
+        <v>1.150477883242388</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006169438158561746</v>
+        <v>0.005621067067572483</v>
       </c>
       <c r="E7">
-        <v>0.7126555678302893</v>
+        <v>0.4881222523195632</v>
       </c>
       <c r="F7">
-        <v>1.519137443740107</v>
+        <v>0.8593734810721969</v>
       </c>
       <c r="G7">
-        <v>1.623223811667117</v>
+        <v>0.7637423443791533</v>
       </c>
       <c r="H7">
-        <v>0.8311993439287733</v>
+        <v>0.7026915231134012</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.8514819129331102</v>
+        <v>0.3070298947698689</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.151211262408538</v>
+        <v>1.470379651012877</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.845835354167377</v>
+        <v>1.228759611986476</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.007419299494024756</v>
+        <v>0.005716592311401314</v>
       </c>
       <c r="E8">
-        <v>0.8142892169398408</v>
+        <v>0.5186203908175457</v>
       </c>
       <c r="F8">
-        <v>1.846331399993289</v>
+        <v>0.9327400290007546</v>
       </c>
       <c r="G8">
-        <v>1.985540947129806</v>
+        <v>0.848235519657436</v>
       </c>
       <c r="H8">
-        <v>0.9918586454277829</v>
+        <v>0.733805684110564</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.037483474782476</v>
+        <v>0.3597398267595793</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.159821005579175</v>
+        <v>1.46861493217645</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.460251406922964</v>
+        <v>1.386531631542027</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01048812383073994</v>
+        <v>0.005984045202204413</v>
       </c>
       <c r="E9">
-        <v>1.016915258496596</v>
+        <v>0.5778128820736441</v>
       </c>
       <c r="F9">
-        <v>2.52962768667507</v>
+        <v>1.082762504600055</v>
       </c>
       <c r="G9">
-        <v>2.741853599781166</v>
+        <v>1.019548510353474</v>
       </c>
       <c r="H9">
-        <v>1.330656205303484</v>
+        <v>0.7995277220165349</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.410539332750176</v>
+        <v>0.4635216917293405</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.188324043455324</v>
+        <v>1.470455404179191</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.925711158680258</v>
+        <v>1.505054176528631</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01328705343251357</v>
+        <v>0.006232242572785651</v>
       </c>
       <c r="E10">
-        <v>1.169461232795427</v>
+        <v>0.6209270957724016</v>
       </c>
       <c r="F10">
-        <v>3.068198956703839</v>
+        <v>1.196906630558544</v>
       </c>
       <c r="G10">
-        <v>3.338054152333967</v>
+        <v>1.149043784464141</v>
       </c>
       <c r="H10">
-        <v>1.599989485077998</v>
+        <v>0.850769447951933</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.692571844846213</v>
+        <v>0.5400461550407272</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.217102596817227</v>
+        <v>1.475010192437068</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.141582688257472</v>
+        <v>1.559542429807664</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01472407821506039</v>
+        <v>0.00635700432626507</v>
       </c>
       <c r="E11">
-        <v>1.240116204748787</v>
+        <v>0.6404599221318534</v>
       </c>
       <c r="F11">
-        <v>3.324083181533382</v>
+        <v>1.249723867037801</v>
       </c>
       <c r="G11">
-        <v>3.621408507599341</v>
+        <v>1.208788306643726</v>
       </c>
       <c r="H11">
-        <v>1.728516952850299</v>
+        <v>0.8747415991251444</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.823356695654837</v>
+        <v>0.5749242202579978</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.232080790816781</v>
+        <v>1.477771919955529</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.2240239037381</v>
+        <v>1.580257902491269</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01529640823471823</v>
+        <v>0.006406004435667967</v>
       </c>
       <c r="E12">
-        <v>1.267099800649135</v>
+        <v>0.6478449279377685</v>
       </c>
       <c r="F12">
-        <v>3.422834118440136</v>
+        <v>1.26985562414535</v>
       </c>
       <c r="G12">
-        <v>3.730780539264771</v>
+        <v>1.231535725413437</v>
       </c>
       <c r="H12">
-        <v>1.778205015148671</v>
+        <v>0.8839158848437592</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.87331255447171</v>
+        <v>0.5881414874193069</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.238040759333543</v>
+        <v>1.478916396014441</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.206236030293383</v>
+        <v>1.575792813939302</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01517181218529728</v>
+        <v>0.006395372492534079</v>
       </c>
       <c r="E13">
-        <v>1.261277415414696</v>
+        <v>0.6462549551843324</v>
       </c>
       <c r="F13">
-        <v>3.401478860734102</v>
+        <v>1.265514020131093</v>
       </c>
       <c r="G13">
-        <v>3.707127432250473</v>
+        <v>1.226631119608726</v>
       </c>
       <c r="H13">
-        <v>1.767455844552813</v>
+        <v>0.8819357223336795</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.862533244667873</v>
+        <v>0.5852944791634229</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.236744080071531</v>
+        <v>1.478665532284282</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.148350613010109</v>
+        <v>1.561245063201625</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01477057049798702</v>
+        <v>0.006361000118417337</v>
       </c>
       <c r="E14">
-        <v>1.242331290549714</v>
+        <v>0.6410677253016104</v>
       </c>
       <c r="F14">
-        <v>3.332168535256955</v>
+        <v>1.251377477616984</v>
       </c>
       <c r="G14">
-        <v>3.630363039285555</v>
+        <v>1.210657257706799</v>
       </c>
       <c r="H14">
-        <v>1.732583462195493</v>
+        <v>0.8754944302671959</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.827457511101471</v>
+        <v>0.5760114177041942</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.232565246930733</v>
+        <v>1.477864102093861</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.112987911340269</v>
+        <v>1.552344811013199</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01452861612481726</v>
+        <v>0.006340176186363067</v>
       </c>
       <c r="E15">
-        <v>1.230757484753056</v>
+        <v>0.6378888757731005</v>
       </c>
       <c r="F15">
-        <v>3.289964581306862</v>
+        <v>1.242735579239223</v>
       </c>
       <c r="G15">
-        <v>3.583622985107297</v>
+        <v>1.200888979850248</v>
       </c>
       <c r="H15">
-        <v>1.711360594733662</v>
+        <v>0.8715615673102945</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.806031017157551</v>
+        <v>0.5703265412523422</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.230043625526235</v>
+        <v>1.477386037670925</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.911694941810197</v>
+        <v>1.501504723318533</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01319681234333103</v>
+        <v>0.006224331984398646</v>
       </c>
       <c r="E16">
-        <v>1.164872941116798</v>
+        <v>0.6196489566787307</v>
       </c>
       <c r="F16">
-        <v>3.051718998329193</v>
+        <v>1.193473087308803</v>
       </c>
       <c r="G16">
-        <v>3.319807342386866</v>
+        <v>1.145156442517873</v>
       </c>
       <c r="H16">
-        <v>1.591723402675967</v>
+        <v>0.8492162485185872</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.684080780818675</v>
+        <v>0.53776814278541</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.216163100813091</v>
+        <v>1.47484354209513</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.789334422036802</v>
+        <v>1.470462224042251</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0124247805230091</v>
+        <v>0.006156337701064274</v>
       </c>
       <c r="E17">
-        <v>1.124808517990147</v>
+        <v>0.608438752781737</v>
       </c>
       <c r="F17">
-        <v>2.90854272704604</v>
+        <v>1.16348262850903</v>
       </c>
       <c r="G17">
-        <v>3.161291406939654</v>
+        <v>1.111182828922381</v>
       </c>
       <c r="H17">
-        <v>1.519970613603135</v>
+        <v>0.8356786385495809</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.60995383176342</v>
+        <v>0.5178117786446137</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.208142546176717</v>
+        <v>1.473460091412775</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.719337990559382</v>
+        <v>1.452661230544209</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01199582586247061</v>
+        <v>0.006118342013934353</v>
       </c>
       <c r="E18">
-        <v>1.101879956516299</v>
+        <v>0.6019834137033229</v>
       </c>
       <c r="F18">
-        <v>2.827196564201898</v>
+        <v>1.146316754359532</v>
       </c>
       <c r="G18">
-        <v>3.071237714434659</v>
+        <v>1.091720645355707</v>
       </c>
       <c r="H18">
-        <v>1.479255207935495</v>
+        <v>0.8279543950656318</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.567547112734729</v>
+        <v>0.5063396771016926</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.203705834383513</v>
+        <v>1.472729317848518</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.695701152713468</v>
+        <v>1.44664337379038</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0118530542752957</v>
+        <v>0.006105666921747854</v>
       </c>
       <c r="E19">
-        <v>1.094135278414569</v>
+        <v>0.5997964585859563</v>
       </c>
       <c r="F19">
-        <v>2.799818681509095</v>
+        <v>1.140519003701968</v>
       </c>
       <c r="G19">
-        <v>3.040930363948149</v>
+        <v>1.085144477448097</v>
       </c>
       <c r="H19">
-        <v>1.465560656958843</v>
+        <v>0.8253497463661006</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.553226228595094</v>
+        <v>0.5024564945763075</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.202233466628414</v>
+        <v>1.472493061635191</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.802319670156123</v>
+        <v>1.473761181728833</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01250537118078299</v>
+        <v>0.006163460269448251</v>
       </c>
       <c r="E20">
-        <v>1.129061185798406</v>
+        <v>0.6096328781113698</v>
       </c>
       <c r="F20">
-        <v>2.923678118371811</v>
+        <v>1.166666467179169</v>
       </c>
       <c r="G20">
-        <v>3.178047524960334</v>
+        <v>1.114791226524432</v>
       </c>
       <c r="H20">
-        <v>1.527550349241579</v>
+        <v>0.8371132897556208</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.617820562120244</v>
+        <v>0.5199355178616827</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.208977964139947</v>
+        <v>1.473600643706405</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.165333217971693</v>
+        <v>1.565515868070122</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01488761990025722</v>
+        <v>0.006371048065268781</v>
       </c>
       <c r="E21">
-        <v>1.247889619424328</v>
+        <v>0.64259165776933</v>
       </c>
       <c r="F21">
-        <v>3.352473851540282</v>
+        <v>1.255526145610702</v>
       </c>
       <c r="G21">
-        <v>3.652851522544552</v>
+        <v>1.215345791828781</v>
       </c>
       <c r="H21">
-        <v>1.742797368314569</v>
+        <v>0.8773837626106911</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.837747787080644</v>
+        <v>0.5787378136850521</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.233784713201345</v>
+        <v>1.478096827723164</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.406693721945715</v>
+        <v>1.625960435985178</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01661145224937499</v>
+        <v>0.006516975326011476</v>
       </c>
       <c r="E22">
-        <v>1.326908877327369</v>
+        <v>0.6640641507683114</v>
       </c>
       <c r="F22">
-        <v>3.64368518772983</v>
+        <v>1.314366008253927</v>
       </c>
       <c r="G22">
-        <v>3.975429464897019</v>
+        <v>1.281785162844585</v>
       </c>
       <c r="H22">
-        <v>1.889493855884012</v>
+        <v>0.9042662663682961</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.984034054693296</v>
+        <v>0.6172251146049064</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.251685182477388</v>
+        <v>1.481610237635692</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.277461923438011</v>
+        <v>1.593656417867976</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01567439650500191</v>
+        <v>0.00643813579005581</v>
       </c>
       <c r="E23">
-        <v>1.284592679849169</v>
+        <v>0.6526101415744563</v>
       </c>
       <c r="F23">
-        <v>3.487149553641842</v>
+        <v>1.282891182970758</v>
       </c>
       <c r="G23">
-        <v>3.80201980751275</v>
+        <v>1.246258174420632</v>
       </c>
       <c r="H23">
-        <v>1.810591112067129</v>
+        <v>0.8898665632894165</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.905697902953705</v>
+        <v>0.5966785001905066</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.241971010219487</v>
+        <v>1.479682628052899</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.796447955972667</v>
+        <v>1.472269580428303</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01246889008175245</v>
+        <v>0.006160236749277459</v>
       </c>
       <c r="E24">
-        <v>1.12713823100691</v>
+        <v>0.6090930465681481</v>
       </c>
       <c r="F24">
-        <v>2.916832414689708</v>
+        <v>1.165226817070334</v>
       </c>
       <c r="G24">
-        <v>3.170468746420482</v>
+        <v>1.113159653110301</v>
       </c>
       <c r="H24">
-        <v>1.524121891836529</v>
+        <v>0.8364645011824621</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.614263365048316</v>
+        <v>0.5189753720118517</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.208599729676365</v>
+        <v>1.473536898789988</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.291898296167744</v>
+        <v>1.343392948847395</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.00957595678388401</v>
+        <v>0.005902821211336118</v>
       </c>
       <c r="E25">
-        <v>0.9615894817356008</v>
+        <v>0.5618655337680281</v>
       </c>
       <c r="F25">
-        <v>2.339250684318031</v>
+        <v>1.041501193283167</v>
       </c>
       <c r="G25">
-        <v>2.531141369084821</v>
+        <v>0.9725809287538141</v>
       </c>
       <c r="H25">
-        <v>1.235892386744609</v>
+        <v>0.781235388654494</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.308451993469419</v>
+        <v>0.4353990564623302</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.179295180150319</v>
+        <v>1.469393045593975</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_135/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_135/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.250258139219767</v>
+        <v>1.929447742856695</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.005747792639855476</v>
+        <v>0.007794362769150354</v>
       </c>
       <c r="E2">
-        <v>0.5268423054473814</v>
+        <v>0.8419993718569003</v>
       </c>
       <c r="F2">
-        <v>0.9530285815336583</v>
+        <v>1.937438104003874</v>
       </c>
       <c r="G2">
-        <v>0.8715018868364552</v>
+        <v>2.086396700835195</v>
       </c>
       <c r="H2">
-        <v>0.7425514595447567</v>
+        <v>1.036801027433768</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.374049089480053</v>
+        <v>1.088347626741353</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.468496641925682</v>
+        <v>1.162914303479312</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.188230561460585</v>
+        <v>1.68807558860442</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.005663307123061401</v>
+        <v>0.006749324607163487</v>
       </c>
       <c r="E3">
-        <v>0.5029502722519297</v>
+        <v>0.7618452399711941</v>
       </c>
       <c r="F3">
-        <v>0.8946491321224102</v>
+        <v>1.676089990021154</v>
       </c>
       <c r="G3">
-        <v>0.8044451341010017</v>
+        <v>1.797051758195749</v>
       </c>
       <c r="H3">
-        <v>0.7175415177758282</v>
+        <v>0.9081105656280783</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3325800823766087</v>
+        <v>0.9413877815138392</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.4692426749845</v>
+        <v>1.154805129464165</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.150682959045383</v>
+        <v>1.541576885871194</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.005621275071270304</v>
+        <v>0.006172471189962891</v>
       </c>
       <c r="E4">
-        <v>0.4882034792257812</v>
+        <v>0.7129238871363199</v>
       </c>
       <c r="F4">
-        <v>0.8595645133386114</v>
+        <v>1.519986139841649</v>
       </c>
       <c r="G4">
-        <v>0.763963207706098</v>
+        <v>1.624163933201771</v>
       </c>
       <c r="H4">
-        <v>0.7027713160572375</v>
+        <v>0.8316143773340627</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3071694250850783</v>
+        <v>0.8519716782916191</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.47037184792687</v>
+        <v>1.151227680269145</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.1355174883291</v>
+        <v>1.482252967673276</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.005606577100008892</v>
+        <v>0.005951673597069274</v>
       </c>
       <c r="E5">
-        <v>0.4821748288301819</v>
+        <v>0.6930430618151391</v>
       </c>
       <c r="F5">
-        <v>0.8454561265490099</v>
+        <v>1.45733085280304</v>
       </c>
       <c r="G5">
-        <v>0.747637448999825</v>
+        <v>1.554753086533083</v>
       </c>
       <c r="H5">
-        <v>0.6968985148211573</v>
+        <v>0.8010011313170082</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2968272395221163</v>
+        <v>0.8157036701736615</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.471001338671897</v>
+        <v>1.150112110390836</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.133007465481853</v>
+        <v>1.472423480375056</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00560428200867058</v>
+        <v>0.00591581730765256</v>
       </c>
       <c r="E6">
-        <v>0.4811726200858359</v>
+        <v>0.6897446813805104</v>
       </c>
       <c r="F6">
-        <v>0.8431247784158131</v>
+        <v>1.446981029988791</v>
       </c>
       <c r="G6">
-        <v>0.7449368115371442</v>
+        <v>1.543286086785031</v>
       </c>
       <c r="H6">
-        <v>0.6959321350483663</v>
+        <v>0.795949578406038</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2951107022479107</v>
+        <v>0.8096906605318281</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.471116110577725</v>
+        <v>1.149947258655985</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.150477883242388</v>
+        <v>1.540775369630467</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005621067067572483</v>
+        <v>0.006169438158785567</v>
       </c>
       <c r="E7">
-        <v>0.4881222523195632</v>
+        <v>0.7126555678302964</v>
       </c>
       <c r="F7">
-        <v>0.8593734810721969</v>
+        <v>1.519137443740092</v>
       </c>
       <c r="G7">
-        <v>0.7637423443791533</v>
+        <v>1.62322381166706</v>
       </c>
       <c r="H7">
-        <v>0.7026915231134012</v>
+        <v>0.8311993439287733</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3070298947698689</v>
+        <v>0.8514819129329112</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.470379651012877</v>
+        <v>1.151211262408538</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.228759611986476</v>
+        <v>1.845835354167548</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.005716592311401314</v>
+        <v>0.00741929949400344</v>
       </c>
       <c r="E8">
-        <v>0.5186203908175457</v>
+        <v>0.8142892169398479</v>
       </c>
       <c r="F8">
-        <v>0.9327400290007546</v>
+        <v>1.846331399993289</v>
       </c>
       <c r="G8">
-        <v>0.848235519657436</v>
+        <v>1.985540947129863</v>
       </c>
       <c r="H8">
-        <v>0.733805684110564</v>
+        <v>0.9918586454278682</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3597398267595793</v>
+        <v>1.037483474782505</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.46861493217645</v>
+        <v>1.159821005579246</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.386531631542027</v>
+        <v>2.460251406922907</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005984045202204413</v>
+        <v>0.01048812383074349</v>
       </c>
       <c r="E9">
-        <v>0.5778128820736441</v>
+        <v>1.016915258496624</v>
       </c>
       <c r="F9">
-        <v>1.082762504600055</v>
+        <v>2.52962768667507</v>
       </c>
       <c r="G9">
-        <v>1.019548510353474</v>
+        <v>2.741853599781166</v>
       </c>
       <c r="H9">
-        <v>0.7995277220165349</v>
+        <v>1.330656205303342</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4635216917293405</v>
+        <v>1.410539332750147</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.470455404179191</v>
+        <v>1.188324043455353</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.505054176528631</v>
+        <v>2.925711158680258</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.006232242572785651</v>
+        <v>0.01328705343262371</v>
       </c>
       <c r="E10">
-        <v>0.6209270957724016</v>
+        <v>1.169461232795456</v>
       </c>
       <c r="F10">
-        <v>1.196906630558544</v>
+        <v>3.068198956703839</v>
       </c>
       <c r="G10">
-        <v>1.149043784464141</v>
+        <v>3.338054152333967</v>
       </c>
       <c r="H10">
-        <v>0.850769447951933</v>
+        <v>1.599989485078027</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5400461550407272</v>
+        <v>1.692571844846128</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.475010192437068</v>
+        <v>1.21710259681717</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.559542429807664</v>
+        <v>3.141582688257415</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.00635700432626507</v>
+        <v>0.0147240782150746</v>
       </c>
       <c r="E11">
-        <v>0.6404599221318534</v>
+        <v>1.240116204748801</v>
       </c>
       <c r="F11">
-        <v>1.249723867037801</v>
+        <v>3.324083181533382</v>
       </c>
       <c r="G11">
-        <v>1.208788306643726</v>
+        <v>3.621408507599284</v>
       </c>
       <c r="H11">
-        <v>0.8747415991251444</v>
+        <v>1.728516952850299</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5749242202579978</v>
+        <v>1.823356695654809</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.477771919955529</v>
+        <v>1.232080790816795</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.580257902491269</v>
+        <v>3.2240239037381</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.006406004435667967</v>
+        <v>0.01529640823459744</v>
       </c>
       <c r="E12">
-        <v>0.6478449279377685</v>
+        <v>1.26709980064912</v>
       </c>
       <c r="F12">
-        <v>1.26985562414535</v>
+        <v>3.422834118440136</v>
       </c>
       <c r="G12">
-        <v>1.231535725413437</v>
+        <v>3.730780539264856</v>
       </c>
       <c r="H12">
-        <v>0.8839158848437592</v>
+        <v>1.778205015148671</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5881414874193069</v>
+        <v>1.873312554471681</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.478916396014441</v>
+        <v>1.238040759333487</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.575792813939302</v>
+        <v>3.206236030293383</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.006395372492534079</v>
+        <v>0.01517181218529728</v>
       </c>
       <c r="E13">
-        <v>0.6462549551843324</v>
+        <v>1.261277415414696</v>
       </c>
       <c r="F13">
-        <v>1.265514020131093</v>
+        <v>3.401478860734102</v>
       </c>
       <c r="G13">
-        <v>1.226631119608726</v>
+        <v>3.707127432250502</v>
       </c>
       <c r="H13">
-        <v>0.8819357223336795</v>
+        <v>1.767455844552842</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5852944791634229</v>
+        <v>1.862533244667901</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.478665532284282</v>
+        <v>1.236744080071517</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.561245063201625</v>
+        <v>3.148350613010052</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.006361000118417337</v>
+        <v>0.01477057049809005</v>
       </c>
       <c r="E14">
-        <v>0.6410677253016104</v>
+        <v>1.242331290549714</v>
       </c>
       <c r="F14">
-        <v>1.251377477616984</v>
+        <v>3.332168535256955</v>
       </c>
       <c r="G14">
-        <v>1.210657257706799</v>
+        <v>3.630363039285498</v>
       </c>
       <c r="H14">
-        <v>0.8754944302671959</v>
+        <v>1.732583462195464</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5760114177041942</v>
+        <v>1.827457511101443</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.477864102093861</v>
+        <v>1.232565246930704</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.552344811013199</v>
+        <v>3.112987911340497</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.006340176186363067</v>
+        <v>0.01452861612481371</v>
       </c>
       <c r="E15">
-        <v>0.6378888757731005</v>
+        <v>1.230757484753056</v>
       </c>
       <c r="F15">
-        <v>1.242735579239223</v>
+        <v>3.289964581306833</v>
       </c>
       <c r="G15">
-        <v>1.200888979850248</v>
+        <v>3.583622985107297</v>
       </c>
       <c r="H15">
-        <v>0.8715615673102945</v>
+        <v>1.711360594733662</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5703265412523422</v>
+        <v>1.806031017157579</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.477386037670925</v>
+        <v>1.230043625526321</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.501504723318533</v>
+        <v>2.911694941810197</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.006224331984398646</v>
+        <v>0.01319681234344117</v>
       </c>
       <c r="E16">
-        <v>0.6196489566787307</v>
+        <v>1.164872941116798</v>
       </c>
       <c r="F16">
-        <v>1.193473087308803</v>
+        <v>3.051718998329164</v>
       </c>
       <c r="G16">
-        <v>1.145156442517873</v>
+        <v>3.319807342386895</v>
       </c>
       <c r="H16">
-        <v>0.8492162485185872</v>
+        <v>1.59172340267591</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.53776814278541</v>
+        <v>1.684080780818647</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.47484354209513</v>
+        <v>1.216163100813063</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.470462224042251</v>
+        <v>2.789334422036859</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.006156337701064274</v>
+        <v>0.01242478052290252</v>
       </c>
       <c r="E17">
-        <v>0.608438752781737</v>
+        <v>1.12480851799009</v>
       </c>
       <c r="F17">
-        <v>1.16348262850903</v>
+        <v>2.908542727046012</v>
       </c>
       <c r="G17">
-        <v>1.111182828922381</v>
+        <v>3.161291406939597</v>
       </c>
       <c r="H17">
-        <v>0.8356786385495809</v>
+        <v>1.519970613603135</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5178117786446137</v>
+        <v>1.60995383176342</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.473460091412775</v>
+        <v>1.20814254617666</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.452661230544209</v>
+        <v>2.719337990559382</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.006118342013934353</v>
+        <v>0.01199582586257719</v>
       </c>
       <c r="E18">
-        <v>0.6019834137033229</v>
+        <v>1.101879956516314</v>
       </c>
       <c r="F18">
-        <v>1.146316754359532</v>
+        <v>2.827196564201927</v>
       </c>
       <c r="G18">
-        <v>1.091720645355707</v>
+        <v>3.071237714434631</v>
       </c>
       <c r="H18">
-        <v>0.8279543950656318</v>
+        <v>1.479255207935495</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5063396771016926</v>
+        <v>1.567547112734815</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.472729317848518</v>
+        <v>1.203705834383499</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.44664337379038</v>
+        <v>2.695701152713355</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.006105666921747854</v>
+        <v>0.01185305427529215</v>
       </c>
       <c r="E19">
-        <v>0.5997964585859563</v>
+        <v>1.094135278414583</v>
       </c>
       <c r="F19">
-        <v>1.140519003701968</v>
+        <v>2.799818681509095</v>
       </c>
       <c r="G19">
-        <v>1.085144477448097</v>
+        <v>3.040930363948121</v>
       </c>
       <c r="H19">
-        <v>0.8253497463661006</v>
+        <v>1.465560656958814</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5024564945763075</v>
+        <v>1.553226228595037</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.472493061635191</v>
+        <v>1.2022334666284</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.473761181728833</v>
+        <v>2.80231967015601</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.006163460269448251</v>
+        <v>0.01250537118089312</v>
       </c>
       <c r="E20">
-        <v>0.6096328781113698</v>
+        <v>1.129061185798449</v>
       </c>
       <c r="F20">
-        <v>1.166666467179169</v>
+        <v>2.923678118371782</v>
       </c>
       <c r="G20">
-        <v>1.114791226524432</v>
+        <v>3.178047524960419</v>
       </c>
       <c r="H20">
-        <v>0.8371132897556208</v>
+        <v>1.527550349241551</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5199355178616827</v>
+        <v>1.617820562120158</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.473600643706405</v>
+        <v>1.20897796413999</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.565515868070122</v>
+        <v>3.165333217971408</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.006371048065268781</v>
+        <v>0.01488761990002985</v>
       </c>
       <c r="E21">
-        <v>0.64259165776933</v>
+        <v>1.247889619424313</v>
       </c>
       <c r="F21">
-        <v>1.255526145610702</v>
+        <v>3.352473851540253</v>
       </c>
       <c r="G21">
-        <v>1.215345791828781</v>
+        <v>3.65285152254458</v>
       </c>
       <c r="H21">
-        <v>0.8773837626106911</v>
+        <v>1.742797368314513</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5787378136850521</v>
+        <v>1.837747787080588</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.478096827723164</v>
+        <v>1.233784713201345</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.625960435985178</v>
+        <v>3.406693721945715</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.006516975326011476</v>
+        <v>0.01661145224936789</v>
       </c>
       <c r="E22">
-        <v>0.6640641507683114</v>
+        <v>1.326908877327355</v>
       </c>
       <c r="F22">
-        <v>1.314366008253927</v>
+        <v>3.64368518772983</v>
       </c>
       <c r="G22">
-        <v>1.281785162844585</v>
+        <v>3.975429464897019</v>
       </c>
       <c r="H22">
-        <v>0.9042662663682961</v>
+        <v>1.889493855884041</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6172251146049064</v>
+        <v>1.984034054693268</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.481610237635692</v>
+        <v>1.251685182477388</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.593656417867976</v>
+        <v>3.277461923438239</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.00643813579005581</v>
+        <v>0.01567439650499836</v>
       </c>
       <c r="E23">
-        <v>0.6526101415744563</v>
+        <v>1.284592679849183</v>
       </c>
       <c r="F23">
-        <v>1.282891182970758</v>
+        <v>3.487149553641842</v>
       </c>
       <c r="G23">
-        <v>1.246258174420632</v>
+        <v>3.802019807512835</v>
       </c>
       <c r="H23">
-        <v>0.8898665632894165</v>
+        <v>1.810591112067129</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5966785001905066</v>
+        <v>1.905697902953676</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.479682628052899</v>
+        <v>1.24197101021943</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.472269580428303</v>
+        <v>2.796447955972496</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.006160236749277459</v>
+        <v>0.01246889008164231</v>
       </c>
       <c r="E24">
-        <v>0.6090930465681481</v>
+        <v>1.127138231006938</v>
       </c>
       <c r="F24">
-        <v>1.165226817070334</v>
+        <v>2.916832414689708</v>
       </c>
       <c r="G24">
-        <v>1.113159653110301</v>
+        <v>3.170468746420454</v>
       </c>
       <c r="H24">
-        <v>0.8364645011824621</v>
+        <v>1.524121891836529</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5189753720118517</v>
+        <v>1.614263365048373</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.473536898789988</v>
+        <v>1.208599729676422</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.343392948847395</v>
+        <v>2.291898296167631</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.005902821211336118</v>
+        <v>0.009575956783887563</v>
       </c>
       <c r="E25">
-        <v>0.5618655337680281</v>
+        <v>0.9615894817356008</v>
       </c>
       <c r="F25">
-        <v>1.041501193283167</v>
+        <v>2.339250684318046</v>
       </c>
       <c r="G25">
-        <v>0.9725809287538141</v>
+        <v>2.531141369084878</v>
       </c>
       <c r="H25">
-        <v>0.781235388654494</v>
+        <v>1.235892386744581</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4353990564623302</v>
+        <v>1.308451993469447</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.469393045593975</v>
+        <v>1.179295180150305</v>
       </c>
       <c r="O25">
         <v>0</v>
